--- a/Excel/Data Read.xlsx
+++ b/Excel/Data Read.xlsx
@@ -8,10 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Akkeem1" r:id="rId5" sheetId="2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>S.No</t>
   </si>
@@ -55,12 +56,46 @@
   </si>
   <si>
     <t>POSTMAN</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>RollNumber</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Course Completed Status</t>
+  </si>
+  <si>
+    <t>Saran</t>
+  </si>
+  <si>
+    <t>B.A Tamil</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Naren</t>
+  </si>
+  <si>
+    <t>M.A Tamil</t>
+  </si>
+  <si>
+    <t>In Complete</t>
+  </si>
+  <si>
+    <t>Kavin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,12 +410,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -456,4 +491,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12346.0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="n">
+        <v>576576.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n">
+        <v>678687.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>